--- a/data/ethnicity_translations.xlsx
+++ b/data/ethnicity_translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\Thesis2\Geopolitics of repressions\Geopolitics-of-Repressions\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96E89C7-9CCF-4B77-A742-28FF66E30438}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68400B68-2D72-4684-96C5-7ADF3D545452}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4446,8 +4446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D653"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="D495" sqref="D495"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/ethnicity_translations.xlsx
+++ b/data/ethnicity_translations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\Thesis2\Geopolitics of repressions\Geopolitics-of-Repressions\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\Thesis2\Geopolitics of repressions\Geopolitics-of-Repressions2\Geopolitics-of-Repressions\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68400B68-2D72-4684-96C5-7ADF3D545452}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8E8734-70EE-49E1-B364-31F8E1D3FF5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="3468" windowWidth="18432" windowHeight="8772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="1346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="1347">
   <si>
     <t>nation</t>
   </si>
@@ -4058,6 +4058,9 @@
   </si>
   <si>
     <t>ethnicity</t>
+  </si>
+  <si>
+    <t>Uyghur</t>
   </si>
 </sst>
 </file>
@@ -4446,8 +4449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D653"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5403,6 +5406,9 @@
       <c r="C68">
         <v>663</v>
       </c>
+      <c r="D68" t="s">
+        <v>1346</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
@@ -5837,6 +5843,9 @@
       <c r="C102">
         <v>185</v>
       </c>
+      <c r="D102" t="s">
+        <v>1346</v>
+      </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
@@ -5917,6 +5926,9 @@
       <c r="C109">
         <v>157</v>
       </c>
+      <c r="D109" t="s">
+        <v>1338</v>
+      </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
@@ -7579,6 +7591,9 @@
       <c r="C253">
         <v>10</v>
       </c>
+      <c r="D253" t="s">
+        <v>1328</v>
+      </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
@@ -7615,6 +7630,9 @@
       <c r="C256">
         <v>9</v>
       </c>
+      <c r="D256" t="s">
+        <v>1338</v>
+      </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
@@ -7802,6 +7820,9 @@
       <c r="C273">
         <v>8</v>
       </c>
+      <c r="D273" t="s">
+        <v>1318</v>
+      </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
@@ -8943,6 +8964,9 @@
       </c>
       <c r="C376">
         <v>3</v>
+      </c>
+      <c r="D376" t="s">
+        <v>1346</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
